--- a/output/BMW_Quotation_V1_2_LAYOUT_ONLY.xlsx
+++ b/output/BMW_Quotation_V1_2_LAYOUT_ONLY.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>08.01.2026</t>
+          <t>18.01.2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
